--- a/디버깅_관계재배정후_특이분류학생_summary.xlsx
+++ b/디버깅_관계재배정후_특이분류학생_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>운동부</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>결시생</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>특수학생</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>전출예정</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +567,50 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
